--- a/app/data/tests/ricotta/boiling.xlsx
+++ b/app/data/tests/ricotta/boiling.xlsx
@@ -1403,7 +1403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1524,7 +1524,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1548,7 +1548,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1562,10 +1562,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -5250,11 +5246,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="13" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L2" s="13" t="n">
         <f aca="false">-(H2) / K2</f>
-        <v>0.72</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="M2" s="13" t="n">
         <f aca="false">ROUND(L2, 0)</f>
@@ -5302,15 +5298,15 @@
         <v>0</v>
       </c>
       <c r="K5" s="13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L5" s="13" t="n">
         <f aca="false">-(H5 + H6 + H7 + H8 + H9) / K5</f>
-        <v>14.66</v>
+        <v>13.194</v>
       </c>
       <c r="M5" s="13" t="n">
         <f aca="false">ROUND(L5, 0)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R5" s="13" t="s">
         <v>344</v>
@@ -5463,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L12" s="13" t="n">
         <f aca="false">-(H12 + H13) / K12</f>
@@ -5540,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L16" s="13" t="n">
         <f aca="false">-(H16 + H17) / K16</f>
@@ -5617,11 +5613,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L20" s="13" t="n">
         <f aca="false">-(H20 + H21) / K20</f>
-        <v>0.302857142857143</v>
+        <v>0.265</v>
       </c>
       <c r="M20" s="13" t="n">
         <f aca="false">ROUND(L20, 0)</f>
@@ -5694,15 +5690,15 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L24" s="13" t="n">
         <f aca="false">-(H24 + H25) / K24</f>
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="M24" s="13" t="n">
         <f aca="false">ROUND(L24, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>358</v>
@@ -5771,11 +5767,11 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L28" s="13" t="n">
         <f aca="false">-(H28) / K28</f>
-        <v>0.0828571428571429</v>
+        <v>0.0725</v>
       </c>
       <c r="M28" s="13" t="n">
         <f aca="false">ROUND(L28, 0)</f>
@@ -5820,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L31" s="13" t="n">
         <f aca="false">-(H31) / K31</f>
@@ -5869,11 +5865,11 @@
         <v>0</v>
       </c>
       <c r="K34" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L34" s="13" t="n">
         <f aca="false">-(H34) / K34</f>
-        <v>2.46857142857143</v>
+        <v>2.16</v>
       </c>
       <c r="M34" s="13" t="n">
         <f aca="false">ROUND(L34, 0)</f>
@@ -5918,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="13" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L37" s="13" t="n">
         <f aca="false">-(H37) / K37</f>
@@ -5967,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L40" s="13" t="n">
         <f aca="false">-(H40) / K40</f>
@@ -6017,7 +6013,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T21" activeCellId="0" sqref="T21"/>
+      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6131,17 +6127,17 @@
       </c>
       <c r="B3" s="30" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$B$150,2,0))</f>
-        <v>25,</v>
+        <v>25, </v>
       </c>
       <c r="C3" s="31" t="n">
         <f aca="false">IF(D3="","",VLOOKUP(D3,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F3" s="33" t="str">
         <f aca="true">IF(K3 = "-", J3 * (Q3 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6167,7 +6163,7 @@
       </c>
       <c r="P3" s="2" t="n">
         <f aca="true">IF(K3 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E3)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q3" s="2" t="n">
         <f aca="true">IF(K3 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6200,7 +6196,7 @@
       </c>
       <c r="H4" s="34" t="n">
         <f aca="true">IF(K4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I4" s="34" t="n">
         <f aca="false">IF(K4 = "-", J4 * 2,"")</f>
@@ -6223,7 +6219,7 @@
       </c>
       <c r="Q4" s="2" t="n">
         <f aca="true">IF(K4 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R4" s="35"/>
     </row>
@@ -6234,17 +6230,17 @@
       </c>
       <c r="B5" s="30" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$B$150,2,0))</f>
-        <v>25,</v>
+        <v>25, </v>
       </c>
       <c r="C5" s="31" t="n">
         <f aca="false">IF(D5="","",VLOOKUP(D5,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F5" s="33" t="str">
         <f aca="true">IF(K5 = "-", J5 * (Q5 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6270,7 +6266,7 @@
       </c>
       <c r="P5" s="2" t="n">
         <f aca="true">IF(K5 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E5)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q5" s="2" t="n">
         <f aca="true">IF(K5 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6303,7 +6299,7 @@
       </c>
       <c r="H6" s="34" t="n">
         <f aca="true">IF(K6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I6" s="34" t="n">
         <f aca="false">IF(K6 = "-", J6 * 2,"")</f>
@@ -6326,7 +6322,7 @@
       </c>
       <c r="Q6" s="2" t="n">
         <f aca="true">IF(K6 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R6" s="35"/>
     </row>
@@ -6337,11 +6333,11 @@
       </c>
       <c r="B7" s="30" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$B$150,2,0))</f>
-        <v>45,</v>
+        <v>45, </v>
       </c>
       <c r="C7" s="31" t="n">
         <f aca="false">IF(D7="","",VLOOKUP(D7,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>54</v>
@@ -6387,11 +6383,11 @@
       </c>
       <c r="B8" s="30" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$B$150,2,0))</f>
-        <v>45,</v>
+        <v>45, </v>
       </c>
       <c r="C8" s="31" t="n">
         <f aca="false">IF(D8="","",VLOOKUP(D8,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>58</v>
@@ -6437,17 +6433,17 @@
       </c>
       <c r="B9" s="30" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$B$150,2,0))</f>
-        <v>45,</v>
+        <v>45, </v>
       </c>
       <c r="C9" s="31" t="n">
         <f aca="false">IF(D9="","",VLOOKUP(D9,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>644</v>
+        <v>744</v>
       </c>
       <c r="F9" s="33" t="str">
         <f aca="true">IF(K9 = "-", J9 * (Q9 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6472,7 +6468,7 @@
       </c>
       <c r="P9" s="2" t="n">
         <f aca="true">IF(K9 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E9)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q9" s="2" t="n">
         <f aca="true">IF(K9 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6505,7 +6501,7 @@
       </c>
       <c r="H10" s="34" t="n">
         <f aca="true">IF(K10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="34" t="n">
         <f aca="false">IF(K10 = "-", J10 * 2,"")</f>
@@ -6527,7 +6523,7 @@
       </c>
       <c r="Q10" s="2" t="n">
         <f aca="true">IF(K10 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R10" s="35"/>
     </row>
@@ -6538,17 +6534,17 @@
       </c>
       <c r="B11" s="30" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$B$150,2,0))</f>
-        <v>45,</v>
+        <v>45, </v>
       </c>
       <c r="C11" s="31" t="n">
         <f aca="false">IF(D11="","",VLOOKUP(D11,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="33" t="str">
         <f aca="true">IF(K11 = "-", J11 * (Q11 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6573,7 +6569,7 @@
       </c>
       <c r="P11" s="2" t="n">
         <f aca="true">IF(K11 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E11)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q11" s="2" t="n">
         <f aca="true">IF(K11 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6606,7 +6602,7 @@
       </c>
       <c r="H12" s="34" t="n">
         <f aca="true">IF(K12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="34" t="n">
         <f aca="false">IF(K12 = "-", J12 * 2,"")</f>
@@ -6628,7 +6624,7 @@
       </c>
       <c r="Q12" s="2" t="n">
         <f aca="true">IF(K12 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R12" s="35"/>
     </row>
@@ -6639,17 +6635,17 @@
       </c>
       <c r="B13" s="30" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$B$150,2,0))</f>
-        <v>45,</v>
+        <v>45, </v>
       </c>
       <c r="C13" s="31" t="n">
         <f aca="false">IF(D13="","",VLOOKUP(D13,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="33" t="str">
         <f aca="true">IF(K13 = "-", J13 * (Q13 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6674,7 +6670,7 @@
       </c>
       <c r="P13" s="2" t="n">
         <f aca="true">IF(K13 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E13)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q13" s="2" t="n">
         <f aca="true">IF(K13 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6707,7 +6703,7 @@
       </c>
       <c r="H14" s="34" t="n">
         <f aca="true">IF(K14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="34" t="n">
         <f aca="false">IF(K14 = "-", J14 * 2,"")</f>
@@ -6729,7 +6725,7 @@
       </c>
       <c r="Q14" s="2" t="n">
         <f aca="true">IF(K14 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R14" s="35"/>
     </row>
@@ -6740,17 +6736,17 @@
       </c>
       <c r="B15" s="30" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$B$150,2,0))</f>
-        <v>50,</v>
+        <v>50, </v>
       </c>
       <c r="C15" s="31" t="n">
         <f aca="false">IF(D15="","",VLOOKUP(D15,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="32" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="33" t="str">
         <f aca="true">IF(K15 = "-", J15 * (Q15 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6775,7 +6771,7 @@
       </c>
       <c r="P15" s="2" t="n">
         <f aca="true">IF(K15 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E15)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q15" s="2" t="n">
         <f aca="true">IF(K15 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6808,7 +6804,7 @@
       </c>
       <c r="H16" s="34" t="n">
         <f aca="true">IF(K16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I16" s="34" t="n">
         <f aca="false">IF(K16 = "-", J16 * 2,"")</f>
@@ -6831,7 +6827,7 @@
       </c>
       <c r="Q16" s="2" t="n">
         <f aca="true">IF(K16 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="R16" s="35"/>
     </row>
@@ -6846,13 +6842,13 @@
       </c>
       <c r="C17" s="31" t="n">
         <f aca="false">IF(D17="","",VLOOKUP(D17,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17" s="33" t="str">
         <f aca="true">IF(K17 = "-", J17 * (Q17 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -6878,7 +6874,7 @@
       </c>
       <c r="P17" s="2" t="n">
         <f aca="true">IF(K17 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E17)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q17" s="2" t="n">
         <f aca="true">IF(K17 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6897,7 +6893,7 @@
       </c>
       <c r="C18" s="31" t="n">
         <f aca="false">IF(D18="","",VLOOKUP(D18,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>71</v>
@@ -6929,7 +6925,7 @@
       </c>
       <c r="P18" s="2" t="n">
         <f aca="true">IF(K18 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E18)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q18" s="2" t="n">
         <f aca="true">IF(K18 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -6962,7 +6958,7 @@
       </c>
       <c r="H19" s="34" t="n">
         <f aca="true">IF(K19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I19" s="34" t="n">
         <f aca="false">IF(K19 = "-", J19 * 2,"")</f>
@@ -6985,7 +6981,7 @@
       </c>
       <c r="Q19" s="2" t="n">
         <f aca="true">IF(K19 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R19" s="35"/>
     </row>
@@ -7000,7 +6996,7 @@
       </c>
       <c r="C20" s="31" t="n">
         <f aca="false">IF(D20="","",VLOOKUP(D20,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>68</v>
@@ -7051,13 +7047,13 @@
       </c>
       <c r="C21" s="31" t="n">
         <f aca="false">IF(D21="","",VLOOKUP(D21,SKU!$A$1:$C$150,3,0) * 2)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F21" s="33" t="str">
         <f aca="true">IF(K21 = "-", J21 * (Q21 - INDIRECT("P" &amp; ROW() - 1)), "")</f>
@@ -7083,7 +7079,7 @@
       </c>
       <c r="P21" s="2" t="n">
         <f aca="true">IF(K21 = "-", 0, INDIRECT("P" &amp; ROW() - 1) + E21)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q21" s="2" t="n">
         <f aca="true">IF(K21 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
@@ -7116,7 +7112,7 @@
       </c>
       <c r="H22" s="34" t="n">
         <f aca="true">IF(K22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I22" s="34" t="n">
         <f aca="false">IF(K22 = "-", J22 * 2,"")</f>
@@ -7139,7 +7135,7 @@
       </c>
       <c r="Q22" s="2" t="n">
         <f aca="true">IF(K22 = "-", INDIRECT("C" &amp; ROW() - 1),0)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R22" s="35"/>
     </row>
@@ -7152,7 +7148,7 @@
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C23" s="40" t="str">
+      <c r="C23" s="36" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7197,7 +7193,7 @@
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C24" s="40" t="str">
+      <c r="C24" s="36" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7242,7 +7238,7 @@
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C25" s="40" t="str">
+      <c r="C25" s="36" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7287,7 +7283,7 @@
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C26" s="40" t="str">
+      <c r="C26" s="36" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7332,7 +7328,7 @@
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C27" s="40" t="str">
+      <c r="C27" s="36" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7377,7 +7373,7 @@
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C28" s="40" t="str">
+      <c r="C28" s="36" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7422,7 +7418,7 @@
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C29" s="40" t="str">
+      <c r="C29" s="36" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7467,7 +7463,7 @@
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="40" t="str">
+      <c r="C30" s="36" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7512,7 +7508,7 @@
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="40" t="str">
+      <c r="C31" s="36" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7557,7 +7553,7 @@
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="40" t="str">
+      <c r="C32" s="36" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7602,7 +7598,7 @@
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="40" t="str">
+      <c r="C33" s="36" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7647,7 +7643,7 @@
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="40" t="str">
+      <c r="C34" s="36" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7692,7 +7688,7 @@
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="40" t="str">
+      <c r="C35" s="36" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7737,7 +7733,7 @@
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="40" t="str">
+      <c r="C36" s="36" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7782,7 +7778,7 @@
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="40" t="str">
+      <c r="C37" s="36" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7827,7 +7823,7 @@
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="40" t="str">
+      <c r="C38" s="36" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7872,7 +7868,7 @@
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="40" t="str">
+      <c r="C39" s="36" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7917,7 +7913,7 @@
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="40" t="str">
+      <c r="C40" s="36" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -7962,7 +7958,7 @@
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="40" t="str">
+      <c r="C41" s="36" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8007,7 +8003,7 @@
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="40" t="str">
+      <c r="C42" s="36" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8052,7 +8048,7 @@
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="40" t="str">
+      <c r="C43" s="36" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8097,7 +8093,7 @@
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="40" t="str">
+      <c r="C44" s="36" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8142,7 +8138,7 @@
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C45" s="40" t="str">
+      <c r="C45" s="36" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8187,7 +8183,7 @@
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C46" s="40" t="str">
+      <c r="C46" s="36" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8232,7 +8228,7 @@
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C47" s="40" t="str">
+      <c r="C47" s="36" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8277,7 +8273,7 @@
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C48" s="40" t="str">
+      <c r="C48" s="36" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8322,7 +8318,7 @@
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C49" s="40" t="str">
+      <c r="C49" s="36" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8367,7 +8363,7 @@
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C50" s="40" t="str">
+      <c r="C50" s="36" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8412,7 +8408,7 @@
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C51" s="40" t="str">
+      <c r="C51" s="36" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8457,7 +8453,7 @@
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C52" s="40" t="str">
+      <c r="C52" s="36" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8502,7 +8498,7 @@
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C53" s="40" t="str">
+      <c r="C53" s="36" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8547,7 +8543,7 @@
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C54" s="40" t="str">
+      <c r="C54" s="36" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8592,7 +8588,7 @@
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C55" s="40" t="str">
+      <c r="C55" s="36" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8637,7 +8633,7 @@
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C56" s="40" t="str">
+      <c r="C56" s="36" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8682,7 +8678,7 @@
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C57" s="40" t="str">
+      <c r="C57" s="36" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8727,7 +8723,7 @@
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C58" s="40" t="str">
+      <c r="C58" s="36" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8772,7 +8768,7 @@
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C59" s="40" t="str">
+      <c r="C59" s="36" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8817,7 +8813,7 @@
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C60" s="40" t="str">
+      <c r="C60" s="36" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8862,7 +8858,7 @@
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C61" s="40" t="str">
+      <c r="C61" s="36" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8907,7 +8903,7 @@
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C62" s="40" t="str">
+      <c r="C62" s="36" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8952,7 +8948,7 @@
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C63" s="40" t="str">
+      <c r="C63" s="36" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -8997,7 +8993,7 @@
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C64" s="40" t="str">
+      <c r="C64" s="36" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9042,7 +9038,7 @@
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C65" s="40" t="str">
+      <c r="C65" s="36" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9087,7 +9083,7 @@
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C66" s="40" t="str">
+      <c r="C66" s="36" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9132,7 +9128,7 @@
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C67" s="40" t="str">
+      <c r="C67" s="36" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9177,7 +9173,7 @@
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C68" s="40" t="str">
+      <c r="C68" s="36" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9222,7 +9218,7 @@
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C69" s="40" t="str">
+      <c r="C69" s="36" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9267,7 +9263,7 @@
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C70" s="40" t="str">
+      <c r="C70" s="36" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9312,7 +9308,7 @@
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C71" s="40" t="str">
+      <c r="C71" s="36" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9357,7 +9353,7 @@
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C72" s="40" t="str">
+      <c r="C72" s="36" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9402,7 +9398,7 @@
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C73" s="40" t="str">
+      <c r="C73" s="36" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9447,7 +9443,7 @@
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C74" s="40" t="str">
+      <c r="C74" s="36" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9492,7 +9488,7 @@
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C75" s="40" t="str">
+      <c r="C75" s="36" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9537,7 +9533,7 @@
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C76" s="40" t="str">
+      <c r="C76" s="36" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9582,7 +9578,7 @@
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C77" s="40" t="str">
+      <c r="C77" s="36" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9627,7 +9623,7 @@
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C78" s="40" t="str">
+      <c r="C78" s="36" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9672,7 +9668,7 @@
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C79" s="40" t="str">
+      <c r="C79" s="36" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9717,7 +9713,7 @@
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C80" s="40" t="str">
+      <c r="C80" s="36" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9762,7 +9758,7 @@
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C81" s="40" t="str">
+      <c r="C81" s="36" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9807,7 +9803,7 @@
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C82" s="40" t="str">
+      <c r="C82" s="36" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9852,7 +9848,7 @@
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C83" s="40" t="str">
+      <c r="C83" s="36" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9897,7 +9893,7 @@
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C84" s="40" t="str">
+      <c r="C84" s="36" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9942,7 +9938,7 @@
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C85" s="40" t="str">
+      <c r="C85" s="36" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -9987,7 +9983,7 @@
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C86" s="40" t="str">
+      <c r="C86" s="36" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10032,7 +10028,7 @@
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C87" s="40" t="str">
+      <c r="C87" s="36" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10077,7 +10073,7 @@
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C88" s="40" t="str">
+      <c r="C88" s="36" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10122,7 +10118,7 @@
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C89" s="40" t="str">
+      <c r="C89" s="36" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10167,7 +10163,7 @@
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C90" s="40" t="str">
+      <c r="C90" s="36" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10212,7 +10208,7 @@
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C91" s="40" t="str">
+      <c r="C91" s="36" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10257,7 +10253,7 @@
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C92" s="40" t="str">
+      <c r="C92" s="36" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10302,7 +10298,7 @@
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C93" s="40" t="str">
+      <c r="C93" s="36" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10347,7 +10343,7 @@
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C94" s="40" t="str">
+      <c r="C94" s="36" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10392,7 +10388,7 @@
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C95" s="40" t="str">
+      <c r="C95" s="36" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10437,7 +10433,7 @@
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C96" s="40" t="str">
+      <c r="C96" s="36" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10482,7 +10478,7 @@
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C97" s="40" t="str">
+      <c r="C97" s="36" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10527,7 +10523,7 @@
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C98" s="40" t="str">
+      <c r="C98" s="36" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10572,7 +10568,7 @@
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C99" s="40" t="str">
+      <c r="C99" s="36" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10617,7 +10613,7 @@
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C100" s="40" t="str">
+      <c r="C100" s="36" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10662,7 +10658,7 @@
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C101" s="40" t="str">
+      <c r="C101" s="36" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10707,7 +10703,7 @@
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C102" s="40" t="str">
+      <c r="C102" s="36" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10752,7 +10748,7 @@
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C103" s="40" t="str">
+      <c r="C103" s="36" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10797,7 +10793,7 @@
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C104" s="40" t="str">
+      <c r="C104" s="36" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10842,7 +10838,7 @@
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C105" s="40" t="str">
+      <c r="C105" s="36" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10887,7 +10883,7 @@
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C106" s="40" t="str">
+      <c r="C106" s="36" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10932,7 +10928,7 @@
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C107" s="40" t="str">
+      <c r="C107" s="36" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -10977,7 +10973,7 @@
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C108" s="40" t="str">
+      <c r="C108" s="36" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11022,7 +11018,7 @@
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C109" s="40" t="str">
+      <c r="C109" s="36" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11067,7 +11063,7 @@
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C110" s="40" t="str">
+      <c r="C110" s="36" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11112,7 +11108,7 @@
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C111" s="40" t="str">
+      <c r="C111" s="36" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11157,7 +11153,7 @@
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C112" s="40" t="str">
+      <c r="C112" s="36" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11202,7 +11198,7 @@
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C113" s="40" t="str">
+      <c r="C113" s="36" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11247,7 +11243,7 @@
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C114" s="40" t="str">
+      <c r="C114" s="36" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11292,7 +11288,7 @@
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C115" s="40" t="str">
+      <c r="C115" s="36" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11337,7 +11333,7 @@
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C116" s="40" t="str">
+      <c r="C116" s="36" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11382,7 +11378,7 @@
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C117" s="40" t="str">
+      <c r="C117" s="36" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11427,7 +11423,7 @@
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C118" s="40" t="str">
+      <c r="C118" s="36" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11472,7 +11468,7 @@
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C119" s="40" t="str">
+      <c r="C119" s="36" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11517,7 +11513,7 @@
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C120" s="40" t="str">
+      <c r="C120" s="36" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11558,8 +11554,8 @@
         <f aca="true">IF(K121="", "", IF(K121="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(N121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(N121))))))</f>
         <v/>
       </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40" t="str">
+      <c r="B121" s="36"/>
+      <c r="C121" s="36" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11596,8 +11592,8 @@
       <c r="R121" s="35"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="40"/>
-      <c r="C122" s="40" t="str">
+      <c r="B122" s="36"/>
+      <c r="C122" s="36" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11618,8 +11614,8 @@
       <c r="R122" s="35"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="40"/>
-      <c r="C123" s="40" t="str">
+      <c r="B123" s="36"/>
+      <c r="C123" s="36" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11640,8 +11636,8 @@
       <c r="R123" s="35"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="40"/>
-      <c r="C124" s="40" t="str">
+      <c r="B124" s="36"/>
+      <c r="C124" s="36" t="str">
         <f aca="false">IF(D124="","",VLOOKUP(D124,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11662,8 +11658,8 @@
       <c r="R124" s="35"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="40"/>
-      <c r="C125" s="40" t="str">
+      <c r="B125" s="36"/>
+      <c r="C125" s="36" t="str">
         <f aca="false">IF(D125="","",VLOOKUP(D125,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11684,8 +11680,8 @@
       <c r="R125" s="35"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="40"/>
-      <c r="C126" s="40" t="str">
+      <c r="B126" s="36"/>
+      <c r="C126" s="36" t="str">
         <f aca="false">IF(D126="","",VLOOKUP(D126,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11706,8 +11702,8 @@
       <c r="R126" s="35"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="40"/>
-      <c r="C127" s="40" t="str">
+      <c r="B127" s="36"/>
+      <c r="C127" s="36" t="str">
         <f aca="false">IF(D127="","",VLOOKUP(D127,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11728,8 +11724,8 @@
       <c r="R127" s="35"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="40"/>
-      <c r="C128" s="40" t="str">
+      <c r="B128" s="36"/>
+      <c r="C128" s="36" t="str">
         <f aca="false">IF(D128="","",VLOOKUP(D128,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11750,8 +11746,8 @@
       <c r="R128" s="35"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="40"/>
-      <c r="C129" s="40" t="str">
+      <c r="B129" s="36"/>
+      <c r="C129" s="36" t="str">
         <f aca="false">IF(D129="","",VLOOKUP(D129,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11772,8 +11768,8 @@
       <c r="R129" s="35"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="40"/>
-      <c r="C130" s="40" t="str">
+      <c r="B130" s="36"/>
+      <c r="C130" s="36" t="str">
         <f aca="false">IF(D130="","",VLOOKUP(D130,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11794,8 +11790,8 @@
       <c r="R130" s="35"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="40"/>
-      <c r="C131" s="40" t="str">
+      <c r="B131" s="36"/>
+      <c r="C131" s="36" t="str">
         <f aca="false">IF(D131="","",VLOOKUP(D131,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11816,8 +11812,8 @@
       <c r="R131" s="35"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="40"/>
-      <c r="C132" s="40" t="str">
+      <c r="B132" s="36"/>
+      <c r="C132" s="36" t="str">
         <f aca="false">IF(D132="","",VLOOKUP(D132,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11838,8 +11834,8 @@
       <c r="R132" s="35"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="40"/>
-      <c r="C133" s="40" t="str">
+      <c r="B133" s="36"/>
+      <c r="C133" s="36" t="str">
         <f aca="false">IF(D133="","",VLOOKUP(D133,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11860,8 +11856,8 @@
       <c r="R133" s="35"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="40"/>
-      <c r="C134" s="40" t="str">
+      <c r="B134" s="36"/>
+      <c r="C134" s="36" t="str">
         <f aca="false">IF(D134="","",VLOOKUP(D134,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11882,8 +11878,8 @@
       <c r="R134" s="35"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="40"/>
-      <c r="C135" s="40" t="str">
+      <c r="B135" s="36"/>
+      <c r="C135" s="36" t="str">
         <f aca="false">IF(D135="","",VLOOKUP(D135,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11904,8 +11900,8 @@
       <c r="R135" s="35"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="40"/>
-      <c r="C136" s="40" t="str">
+      <c r="B136" s="36"/>
+      <c r="C136" s="36" t="str">
         <f aca="false">IF(D136="","",VLOOKUP(D136,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11926,8 +11922,8 @@
       <c r="R136" s="35"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="40"/>
-      <c r="C137" s="40" t="str">
+      <c r="B137" s="36"/>
+      <c r="C137" s="36" t="str">
         <f aca="false">IF(D137="","",VLOOKUP(D137,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11948,8 +11944,8 @@
       <c r="R137" s="35"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="40"/>
-      <c r="C138" s="40" t="str">
+      <c r="B138" s="36"/>
+      <c r="C138" s="36" t="str">
         <f aca="false">IF(D138="","",VLOOKUP(D138,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11970,8 +11966,8 @@
       <c r="R138" s="35"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="40"/>
-      <c r="C139" s="40" t="str">
+      <c r="B139" s="36"/>
+      <c r="C139" s="36" t="str">
         <f aca="false">IF(D139="","",VLOOKUP(D139,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -11992,8 +11988,8 @@
       <c r="R139" s="35"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="40"/>
-      <c r="C140" s="40" t="str">
+      <c r="B140" s="36"/>
+      <c r="C140" s="36" t="str">
         <f aca="false">IF(D140="","",VLOOKUP(D140,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12014,8 +12010,8 @@
       <c r="R140" s="35"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="40"/>
-      <c r="C141" s="40" t="str">
+      <c r="B141" s="36"/>
+      <c r="C141" s="36" t="str">
         <f aca="false">IF(D141="","",VLOOKUP(D141,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12036,8 +12032,8 @@
       <c r="R141" s="35"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="40"/>
-      <c r="C142" s="40" t="str">
+      <c r="B142" s="36"/>
+      <c r="C142" s="36" t="str">
         <f aca="false">IF(D142="","",VLOOKUP(D142,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12058,8 +12054,8 @@
       <c r="R142" s="35"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="40"/>
-      <c r="C143" s="40" t="str">
+      <c r="B143" s="36"/>
+      <c r="C143" s="36" t="str">
         <f aca="false">IF(D143="","",VLOOKUP(D143,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12080,8 +12076,8 @@
       <c r="R143" s="35"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="40"/>
-      <c r="C144" s="40" t="str">
+      <c r="B144" s="36"/>
+      <c r="C144" s="36" t="str">
         <f aca="false">IF(D144="","",VLOOKUP(D144,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12102,8 +12098,8 @@
       <c r="R144" s="35"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="40"/>
-      <c r="C145" s="40" t="str">
+      <c r="B145" s="36"/>
+      <c r="C145" s="36" t="str">
         <f aca="false">IF(D145="","",VLOOKUP(D145,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12124,8 +12120,8 @@
       <c r="R145" s="35"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="40"/>
-      <c r="C146" s="40" t="str">
+      <c r="B146" s="36"/>
+      <c r="C146" s="36" t="str">
         <f aca="false">IF(D146="","",VLOOKUP(D146,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12146,8 +12142,8 @@
       <c r="R146" s="35"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="40"/>
-      <c r="C147" s="40" t="str">
+      <c r="B147" s="36"/>
+      <c r="C147" s="36" t="str">
         <f aca="false">IF(D147="","",VLOOKUP(D147,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12168,8 +12164,8 @@
       <c r="R147" s="35"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="40"/>
-      <c r="C148" s="40" t="str">
+      <c r="B148" s="36"/>
+      <c r="C148" s="36" t="str">
         <f aca="false">IF(D148="","",VLOOKUP(D148,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12190,8 +12186,8 @@
       <c r="R148" s="35"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="40"/>
-      <c r="C149" s="40" t="str">
+      <c r="B149" s="36"/>
+      <c r="C149" s="36" t="str">
         <f aca="false">IF(D149="","",VLOOKUP(D149,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12212,8 +12208,8 @@
       <c r="R149" s="35"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="40"/>
-      <c r="C150" s="40" t="str">
+      <c r="B150" s="36"/>
+      <c r="C150" s="36" t="str">
         <f aca="false">IF(D150="","",VLOOKUP(D150,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12234,8 +12230,8 @@
       <c r="R150" s="35"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="40"/>
-      <c r="C151" s="40" t="str">
+      <c r="B151" s="36"/>
+      <c r="C151" s="36" t="str">
         <f aca="false">IF(D151="","",VLOOKUP(D151,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12256,8 +12252,8 @@
       <c r="R151" s="35"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="40"/>
-      <c r="C152" s="40" t="str">
+      <c r="B152" s="36"/>
+      <c r="C152" s="36" t="str">
         <f aca="false">IF(D152="","",VLOOKUP(D152,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12278,8 +12274,8 @@
       <c r="R152" s="35"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="40"/>
-      <c r="C153" s="40" t="str">
+      <c r="B153" s="36"/>
+      <c r="C153" s="36" t="str">
         <f aca="false">IF(D153="","",VLOOKUP(D153,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12300,8 +12296,8 @@
       <c r="R153" s="35"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="40"/>
-      <c r="C154" s="40" t="str">
+      <c r="B154" s="36"/>
+      <c r="C154" s="36" t="str">
         <f aca="false">IF(D154="","",VLOOKUP(D154,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12322,8 +12318,8 @@
       <c r="R154" s="35"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="40"/>
-      <c r="C155" s="40" t="str">
+      <c r="B155" s="36"/>
+      <c r="C155" s="36" t="str">
         <f aca="false">IF(D155="","",VLOOKUP(D155,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12344,8 +12340,8 @@
       <c r="R155" s="35"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="40"/>
-      <c r="C156" s="40" t="str">
+      <c r="B156" s="36"/>
+      <c r="C156" s="36" t="str">
         <f aca="false">IF(D156="","",VLOOKUP(D156,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12366,8 +12362,8 @@
       <c r="R156" s="35"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="40"/>
-      <c r="C157" s="40" t="str">
+      <c r="B157" s="36"/>
+      <c r="C157" s="36" t="str">
         <f aca="false">IF(D157="","",VLOOKUP(D157,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12388,8 +12384,8 @@
       <c r="R157" s="35"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="40"/>
-      <c r="C158" s="40" t="str">
+      <c r="B158" s="36"/>
+      <c r="C158" s="36" t="str">
         <f aca="false">IF(D158="","",VLOOKUP(D158,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12410,8 +12406,8 @@
       <c r="R158" s="35"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="40"/>
-      <c r="C159" s="40" t="str">
+      <c r="B159" s="36"/>
+      <c r="C159" s="36" t="str">
         <f aca="false">IF(D159="","",VLOOKUP(D159,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12432,8 +12428,8 @@
       <c r="R159" s="35"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="40"/>
-      <c r="C160" s="40" t="str">
+      <c r="B160" s="36"/>
+      <c r="C160" s="36" t="str">
         <f aca="false">IF(D160="","",VLOOKUP(D160,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12454,8 +12450,8 @@
       <c r="R160" s="35"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="40"/>
-      <c r="C161" s="40" t="str">
+      <c r="B161" s="36"/>
+      <c r="C161" s="36" t="str">
         <f aca="false">IF(D161="","",VLOOKUP(D161,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12476,8 +12472,8 @@
       <c r="R161" s="35"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="40"/>
-      <c r="C162" s="40" t="str">
+      <c r="B162" s="36"/>
+      <c r="C162" s="36" t="str">
         <f aca="false">IF(D162="","",VLOOKUP(D162,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12498,8 +12494,8 @@
       <c r="R162" s="35"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="40"/>
-      <c r="C163" s="40" t="str">
+      <c r="B163" s="36"/>
+      <c r="C163" s="36" t="str">
         <f aca="false">IF(D163="","",VLOOKUP(D163,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12520,8 +12516,8 @@
       <c r="R163" s="35"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="40"/>
-      <c r="C164" s="40" t="str">
+      <c r="B164" s="36"/>
+      <c r="C164" s="36" t="str">
         <f aca="false">IF(D164="","",VLOOKUP(D164,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12538,8 +12534,8 @@
       <c r="R164" s="35"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="40"/>
-      <c r="C165" s="40" t="str">
+      <c r="B165" s="36"/>
+      <c r="C165" s="36" t="str">
         <f aca="false">IF(D165="","",VLOOKUP(D165,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12556,8 +12552,8 @@
       <c r="R165" s="35"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="40"/>
-      <c r="C166" s="40" t="str">
+      <c r="B166" s="36"/>
+      <c r="C166" s="36" t="str">
         <f aca="false">IF(D166="","",VLOOKUP(D166,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12574,8 +12570,8 @@
       <c r="R166" s="35"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="40"/>
-      <c r="C167" s="40" t="str">
+      <c r="B167" s="36"/>
+      <c r="C167" s="36" t="str">
         <f aca="false">IF(D167="","",VLOOKUP(D167,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12592,8 +12588,8 @@
       <c r="R167" s="35"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="40"/>
-      <c r="C168" s="40" t="str">
+      <c r="B168" s="36"/>
+      <c r="C168" s="36" t="str">
         <f aca="false">IF(D168="","",VLOOKUP(D168,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12610,8 +12606,8 @@
       <c r="R168" s="35"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="40"/>
-      <c r="C169" s="40" t="str">
+      <c r="B169" s="36"/>
+      <c r="C169" s="36" t="str">
         <f aca="false">IF(D169="","",VLOOKUP(D169,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12628,8 +12624,8 @@
       <c r="R169" s="35"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="40"/>
-      <c r="C170" s="40" t="str">
+      <c r="B170" s="36"/>
+      <c r="C170" s="36" t="str">
         <f aca="false">IF(D170="","",VLOOKUP(D170,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12646,8 +12642,8 @@
       <c r="R170" s="35"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="40"/>
-      <c r="C171" s="40" t="str">
+      <c r="B171" s="36"/>
+      <c r="C171" s="36" t="str">
         <f aca="false">IF(D171="","",VLOOKUP(D171,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12664,8 +12660,8 @@
       <c r="R171" s="35"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="40"/>
-      <c r="C172" s="40" t="str">
+      <c r="B172" s="36"/>
+      <c r="C172" s="36" t="str">
         <f aca="false">IF(D172="","",VLOOKUP(D172,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12682,8 +12678,8 @@
       <c r="R172" s="35"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="40"/>
-      <c r="C173" s="40" t="str">
+      <c r="B173" s="36"/>
+      <c r="C173" s="36" t="str">
         <f aca="false">IF(D173="","",VLOOKUP(D173,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12700,8 +12696,8 @@
       <c r="R173" s="35"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="40"/>
-      <c r="C174" s="40" t="str">
+      <c r="B174" s="36"/>
+      <c r="C174" s="36" t="str">
         <f aca="false">IF(D174="","",VLOOKUP(D174,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12718,8 +12714,8 @@
       <c r="R174" s="35"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="40"/>
-      <c r="C175" s="40" t="str">
+      <c r="B175" s="36"/>
+      <c r="C175" s="36" t="str">
         <f aca="false">IF(D175="","",VLOOKUP(D175,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12736,8 +12732,8 @@
       <c r="R175" s="35"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="40"/>
-      <c r="C176" s="40" t="str">
+      <c r="B176" s="36"/>
+      <c r="C176" s="36" t="str">
         <f aca="false">IF(D176="","",VLOOKUP(D176,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12754,8 +12750,8 @@
       <c r="R176" s="35"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="40"/>
-      <c r="C177" s="40" t="str">
+      <c r="B177" s="36"/>
+      <c r="C177" s="36" t="str">
         <f aca="false">IF(D177="","",VLOOKUP(D177,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12772,8 +12768,8 @@
       <c r="R177" s="35"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="40"/>
-      <c r="C178" s="40" t="str">
+      <c r="B178" s="36"/>
+      <c r="C178" s="36" t="str">
         <f aca="false">IF(D178="","",VLOOKUP(D178,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12790,8 +12786,8 @@
       <c r="R178" s="35"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="40"/>
-      <c r="C179" s="40" t="str">
+      <c r="B179" s="36"/>
+      <c r="C179" s="36" t="str">
         <f aca="false">IF(D179="","",VLOOKUP(D179,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12808,8 +12804,8 @@
       <c r="R179" s="35"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="40"/>
-      <c r="C180" s="40" t="str">
+      <c r="B180" s="36"/>
+      <c r="C180" s="36" t="str">
         <f aca="false">IF(D180="","",VLOOKUP(D180,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12826,8 +12822,8 @@
       <c r="R180" s="35"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="40"/>
-      <c r="C181" s="40" t="str">
+      <c r="B181" s="36"/>
+      <c r="C181" s="36" t="str">
         <f aca="false">IF(D181="","",VLOOKUP(D181,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12844,8 +12840,8 @@
       <c r="R181" s="35"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="40"/>
-      <c r="C182" s="40" t="str">
+      <c r="B182" s="36"/>
+      <c r="C182" s="36" t="str">
         <f aca="false">IF(D182="","",VLOOKUP(D182,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12862,8 +12858,8 @@
       <c r="R182" s="35"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="40"/>
-      <c r="C183" s="40" t="str">
+      <c r="B183" s="36"/>
+      <c r="C183" s="36" t="str">
         <f aca="false">IF(D183="","",VLOOKUP(D183,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12880,8 +12876,8 @@
       <c r="R183" s="35"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="40"/>
-      <c r="C184" s="40" t="str">
+      <c r="B184" s="36"/>
+      <c r="C184" s="36" t="str">
         <f aca="false">IF(D184="","",VLOOKUP(D184,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12898,8 +12894,8 @@
       <c r="R184" s="35"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="40"/>
-      <c r="C185" s="40" t="str">
+      <c r="B185" s="36"/>
+      <c r="C185" s="36" t="str">
         <f aca="false">IF(D185="","",VLOOKUP(D185,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12916,8 +12912,8 @@
       <c r="R185" s="35"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="40"/>
-      <c r="C186" s="40" t="str">
+      <c r="B186" s="36"/>
+      <c r="C186" s="36" t="str">
         <f aca="false">IF(D186="","",VLOOKUP(D186,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12934,8 +12930,8 @@
       <c r="R186" s="35"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="40"/>
-      <c r="C187" s="40" t="str">
+      <c r="B187" s="36"/>
+      <c r="C187" s="36" t="str">
         <f aca="false">IF(D187="","",VLOOKUP(D187,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12952,8 +12948,8 @@
       <c r="R187" s="35"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="40"/>
-      <c r="C188" s="40" t="str">
+      <c r="B188" s="36"/>
+      <c r="C188" s="36" t="str">
         <f aca="false">IF(D188="","",VLOOKUP(D188,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12970,8 +12966,8 @@
       <c r="R188" s="35"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="40"/>
-      <c r="C189" s="40" t="str">
+      <c r="B189" s="36"/>
+      <c r="C189" s="36" t="str">
         <f aca="false">IF(D189="","",VLOOKUP(D189,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -12988,8 +12984,8 @@
       <c r="R189" s="35"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="40"/>
-      <c r="C190" s="40" t="str">
+      <c r="B190" s="36"/>
+      <c r="C190" s="36" t="str">
         <f aca="false">IF(D190="","",VLOOKUP(D190,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13006,8 +13002,8 @@
       <c r="R190" s="35"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="40"/>
-      <c r="C191" s="40" t="str">
+      <c r="B191" s="36"/>
+      <c r="C191" s="36" t="str">
         <f aca="false">IF(D191="","",VLOOKUP(D191,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13024,8 +13020,8 @@
       <c r="R191" s="35"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="40"/>
-      <c r="C192" s="40" t="str">
+      <c r="B192" s="36"/>
+      <c r="C192" s="36" t="str">
         <f aca="false">IF(D192="","",VLOOKUP(D192,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13042,8 +13038,8 @@
       <c r="R192" s="35"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="40"/>
-      <c r="C193" s="40" t="str">
+      <c r="B193" s="36"/>
+      <c r="C193" s="36" t="str">
         <f aca="false">IF(D193="","",VLOOKUP(D193,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13060,8 +13056,8 @@
       <c r="R193" s="35"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="40"/>
-      <c r="C194" s="40" t="str">
+      <c r="B194" s="36"/>
+      <c r="C194" s="36" t="str">
         <f aca="false">IF(D194="","",VLOOKUP(D194,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13078,8 +13074,8 @@
       <c r="R194" s="35"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="40"/>
-      <c r="C195" s="40" t="str">
+      <c r="B195" s="36"/>
+      <c r="C195" s="36" t="str">
         <f aca="false">IF(D195="","",VLOOKUP(D195,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13096,8 +13092,8 @@
       <c r="R195" s="35"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="40"/>
-      <c r="C196" s="40" t="str">
+      <c r="B196" s="36"/>
+      <c r="C196" s="36" t="str">
         <f aca="false">IF(D196="","",VLOOKUP(D196,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13114,8 +13110,8 @@
       <c r="R196" s="35"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="40"/>
-      <c r="C197" s="40" t="str">
+      <c r="B197" s="36"/>
+      <c r="C197" s="36" t="str">
         <f aca="false">IF(D197="","",VLOOKUP(D197,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13132,8 +13128,8 @@
       <c r="R197" s="35"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="40"/>
-      <c r="C198" s="40" t="str">
+      <c r="B198" s="36"/>
+      <c r="C198" s="36" t="str">
         <f aca="false">IF(D198="","",VLOOKUP(D198,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13150,8 +13146,8 @@
       <c r="R198" s="35"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="40"/>
-      <c r="C199" s="40" t="str">
+      <c r="B199" s="36"/>
+      <c r="C199" s="36" t="str">
         <f aca="false">IF(D199="","",VLOOKUP(D199,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13168,8 +13164,8 @@
       <c r="R199" s="35"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="40"/>
-      <c r="C200" s="40" t="str">
+      <c r="B200" s="36"/>
+      <c r="C200" s="36" t="str">
         <f aca="false">IF(D200="","",VLOOKUP(D200,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13186,8 +13182,8 @@
       <c r="R200" s="35"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="40"/>
-      <c r="C201" s="40" t="str">
+      <c r="B201" s="36"/>
+      <c r="C201" s="36" t="str">
         <f aca="false">IF(D201="","",VLOOKUP(D201,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13204,8 +13200,8 @@
       <c r="R201" s="35"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="40"/>
-      <c r="C202" s="40" t="str">
+      <c r="B202" s="36"/>
+      <c r="C202" s="36" t="str">
         <f aca="false">IF(D202="","",VLOOKUP(D202,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13222,8 +13218,8 @@
       <c r="R202" s="35"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="40"/>
-      <c r="C203" s="40" t="str">
+      <c r="B203" s="36"/>
+      <c r="C203" s="36" t="str">
         <f aca="false">IF(D203="","",VLOOKUP(D203,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13240,8 +13236,8 @@
       <c r="R203" s="35"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="40"/>
-      <c r="C204" s="40" t="str">
+      <c r="B204" s="36"/>
+      <c r="C204" s="36" t="str">
         <f aca="false">IF(D204="","",VLOOKUP(D204,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13258,8 +13254,8 @@
       <c r="R204" s="35"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="40"/>
-      <c r="C205" s="40" t="str">
+      <c r="B205" s="36"/>
+      <c r="C205" s="36" t="str">
         <f aca="false">IF(D205="","",VLOOKUP(D205,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13276,8 +13272,8 @@
       <c r="R205" s="35"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="40"/>
-      <c r="C206" s="40" t="str">
+      <c r="B206" s="36"/>
+      <c r="C206" s="36" t="str">
         <f aca="false">IF(D206="","",VLOOKUP(D206,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13294,8 +13290,8 @@
       <c r="R206" s="35"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="40"/>
-      <c r="C207" s="40" t="str">
+      <c r="B207" s="36"/>
+      <c r="C207" s="36" t="str">
         <f aca="false">IF(D207="","",VLOOKUP(D207,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13312,8 +13308,8 @@
       <c r="R207" s="35"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="40"/>
-      <c r="C208" s="40" t="str">
+      <c r="B208" s="36"/>
+      <c r="C208" s="36" t="str">
         <f aca="false">IF(D208="","",VLOOKUP(D208,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13330,8 +13326,8 @@
       <c r="R208" s="35"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="40"/>
-      <c r="C209" s="40" t="str">
+      <c r="B209" s="36"/>
+      <c r="C209" s="36" t="str">
         <f aca="false">IF(D209="","",VLOOKUP(D209,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13348,8 +13344,8 @@
       <c r="R209" s="35"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="40"/>
-      <c r="C210" s="40" t="str">
+      <c r="B210" s="36"/>
+      <c r="C210" s="36" t="str">
         <f aca="false">IF(D210="","",VLOOKUP(D210,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13366,8 +13362,8 @@
       <c r="R210" s="35"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="40"/>
-      <c r="C211" s="40" t="str">
+      <c r="B211" s="36"/>
+      <c r="C211" s="36" t="str">
         <f aca="false">IF(D211="","",VLOOKUP(D211,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13384,8 +13380,8 @@
       <c r="R211" s="35"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B212" s="40"/>
-      <c r="C212" s="40" t="str">
+      <c r="B212" s="36"/>
+      <c r="C212" s="36" t="str">
         <f aca="false">IF(D212="","",VLOOKUP(D212,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13402,8 +13398,8 @@
       <c r="R212" s="35"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="40"/>
-      <c r="C213" s="40" t="str">
+      <c r="B213" s="36"/>
+      <c r="C213" s="36" t="str">
         <f aca="false">IF(D213="","",VLOOKUP(D213,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13420,8 +13416,8 @@
       <c r="R213" s="35"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="40"/>
-      <c r="C214" s="40" t="str">
+      <c r="B214" s="36"/>
+      <c r="C214" s="36" t="str">
         <f aca="false">IF(D214="","",VLOOKUP(D214,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13438,8 +13434,8 @@
       <c r="R214" s="35"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="40"/>
-      <c r="C215" s="40" t="str">
+      <c r="B215" s="36"/>
+      <c r="C215" s="36" t="str">
         <f aca="false">IF(D215="","",VLOOKUP(D215,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13456,8 +13452,8 @@
       <c r="R215" s="35"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="40"/>
-      <c r="C216" s="40" t="str">
+      <c r="B216" s="36"/>
+      <c r="C216" s="36" t="str">
         <f aca="false">IF(D216="","",VLOOKUP(D216,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13474,8 +13470,8 @@
       <c r="R216" s="35"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="40"/>
-      <c r="C217" s="40" t="str">
+      <c r="B217" s="36"/>
+      <c r="C217" s="36" t="str">
         <f aca="false">IF(D217="","",VLOOKUP(D217,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13492,8 +13488,8 @@
       <c r="R217" s="35"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="40"/>
-      <c r="C218" s="40" t="str">
+      <c r="B218" s="36"/>
+      <c r="C218" s="36" t="str">
         <f aca="false">IF(D218="","",VLOOKUP(D218,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13510,8 +13506,8 @@
       <c r="R218" s="35"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="40"/>
-      <c r="C219" s="40" t="str">
+      <c r="B219" s="36"/>
+      <c r="C219" s="36" t="str">
         <f aca="false">IF(D219="","",VLOOKUP(D219,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13528,8 +13524,8 @@
       <c r="R219" s="35"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="40"/>
-      <c r="C220" s="40" t="str">
+      <c r="B220" s="36"/>
+      <c r="C220" s="36" t="str">
         <f aca="false">IF(D220="","",VLOOKUP(D220,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13546,8 +13542,8 @@
       <c r="R220" s="35"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="40"/>
-      <c r="C221" s="40" t="str">
+      <c r="B221" s="36"/>
+      <c r="C221" s="36" t="str">
         <f aca="false">IF(D221="","",VLOOKUP(D221,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13564,8 +13560,8 @@
       <c r="R221" s="35"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="40"/>
-      <c r="C222" s="40" t="str">
+      <c r="B222" s="36"/>
+      <c r="C222" s="36" t="str">
         <f aca="false">IF(D222="","",VLOOKUP(D222,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13582,8 +13578,8 @@
       <c r="R222" s="35"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="40"/>
-      <c r="C223" s="40" t="str">
+      <c r="B223" s="36"/>
+      <c r="C223" s="36" t="str">
         <f aca="false">IF(D223="","",VLOOKUP(D223,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13600,8 +13596,8 @@
       <c r="R223" s="35"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="40"/>
-      <c r="C224" s="40" t="str">
+      <c r="B224" s="36"/>
+      <c r="C224" s="36" t="str">
         <f aca="false">IF(D224="","",VLOOKUP(D224,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13618,8 +13614,8 @@
       <c r="R224" s="35"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="40"/>
-      <c r="C225" s="40" t="str">
+      <c r="B225" s="36"/>
+      <c r="C225" s="36" t="str">
         <f aca="false">IF(D225="","",VLOOKUP(D225,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13636,8 +13632,8 @@
       <c r="R225" s="35"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="40"/>
-      <c r="C226" s="40" t="str">
+      <c r="B226" s="36"/>
+      <c r="C226" s="36" t="str">
         <f aca="false">IF(D226="","",VLOOKUP(D226,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13654,8 +13650,8 @@
       <c r="R226" s="35"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="40"/>
-      <c r="C227" s="40" t="str">
+      <c r="B227" s="36"/>
+      <c r="C227" s="36" t="str">
         <f aca="false">IF(D227="","",VLOOKUP(D227,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13672,8 +13668,8 @@
       <c r="R227" s="35"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="40"/>
-      <c r="C228" s="40" t="str">
+      <c r="B228" s="36"/>
+      <c r="C228" s="36" t="str">
         <f aca="false">IF(D228="","",VLOOKUP(D228,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13690,8 +13686,8 @@
       <c r="R228" s="35"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="40"/>
-      <c r="C229" s="40" t="str">
+      <c r="B229" s="36"/>
+      <c r="C229" s="36" t="str">
         <f aca="false">IF(D229="","",VLOOKUP(D229,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13708,8 +13704,8 @@
       <c r="R229" s="35"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B230" s="40"/>
-      <c r="C230" s="40" t="str">
+      <c r="B230" s="36"/>
+      <c r="C230" s="36" t="str">
         <f aca="false">IF(D230="","",VLOOKUP(D230,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13726,8 +13722,8 @@
       <c r="R230" s="35"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B231" s="40"/>
-      <c r="C231" s="40" t="str">
+      <c r="B231" s="36"/>
+      <c r="C231" s="36" t="str">
         <f aca="false">IF(D231="","",VLOOKUP(D231,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13744,8 +13740,8 @@
       <c r="R231" s="35"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B232" s="40"/>
-      <c r="C232" s="40" t="str">
+      <c r="B232" s="36"/>
+      <c r="C232" s="36" t="str">
         <f aca="false">IF(D232="","",VLOOKUP(D232,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13762,8 +13758,8 @@
       <c r="R232" s="35"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B233" s="40"/>
-      <c r="C233" s="40" t="str">
+      <c r="B233" s="36"/>
+      <c r="C233" s="36" t="str">
         <f aca="false">IF(D233="","",VLOOKUP(D233,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13780,8 +13776,8 @@
       <c r="R233" s="35"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B234" s="40"/>
-      <c r="C234" s="40" t="str">
+      <c r="B234" s="36"/>
+      <c r="C234" s="36" t="str">
         <f aca="false">IF(D234="","",VLOOKUP(D234,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13798,8 +13794,8 @@
       <c r="R234" s="35"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B235" s="40"/>
-      <c r="C235" s="40" t="str">
+      <c r="B235" s="36"/>
+      <c r="C235" s="36" t="str">
         <f aca="false">IF(D235="","",VLOOKUP(D235,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13816,8 +13812,8 @@
       <c r="R235" s="35"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B236" s="40"/>
-      <c r="C236" s="40" t="str">
+      <c r="B236" s="36"/>
+      <c r="C236" s="36" t="str">
         <f aca="false">IF(D236="","",VLOOKUP(D236,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13834,8 +13830,8 @@
       <c r="R236" s="35"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B237" s="40"/>
-      <c r="C237" s="40" t="str">
+      <c r="B237" s="36"/>
+      <c r="C237" s="36" t="str">
         <f aca="false">IF(D237="","",VLOOKUP(D237,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13852,8 +13848,8 @@
       <c r="R237" s="35"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B238" s="40"/>
-      <c r="C238" s="40" t="str">
+      <c r="B238" s="36"/>
+      <c r="C238" s="36" t="str">
         <f aca="false">IF(D238="","",VLOOKUP(D238,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13870,8 +13866,8 @@
       <c r="R238" s="35"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B239" s="40"/>
-      <c r="C239" s="40" t="str">
+      <c r="B239" s="36"/>
+      <c r="C239" s="36" t="str">
         <f aca="false">IF(D239="","",VLOOKUP(D239,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13888,8 +13884,8 @@
       <c r="R239" s="35"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B240" s="40"/>
-      <c r="C240" s="40" t="str">
+      <c r="B240" s="36"/>
+      <c r="C240" s="36" t="str">
         <f aca="false">IF(D240="","",VLOOKUP(D240,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13906,8 +13902,8 @@
       <c r="R240" s="35"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B241" s="40"/>
-      <c r="C241" s="40" t="str">
+      <c r="B241" s="36"/>
+      <c r="C241" s="36" t="str">
         <f aca="false">IF(D241="","",VLOOKUP(D241,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13924,8 +13920,8 @@
       <c r="R241" s="35"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B242" s="40"/>
-      <c r="C242" s="40" t="str">
+      <c r="B242" s="36"/>
+      <c r="C242" s="36" t="str">
         <f aca="false">IF(D242="","",VLOOKUP(D242,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13942,8 +13938,8 @@
       <c r="R242" s="35"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B243" s="40"/>
-      <c r="C243" s="40" t="str">
+      <c r="B243" s="36"/>
+      <c r="C243" s="36" t="str">
         <f aca="false">IF(D243="","",VLOOKUP(D243,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13960,8 +13956,8 @@
       <c r="R243" s="35"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B244" s="40"/>
-      <c r="C244" s="40" t="str">
+      <c r="B244" s="36"/>
+      <c r="C244" s="36" t="str">
         <f aca="false">IF(D244="","",VLOOKUP(D244,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13978,8 +13974,8 @@
       <c r="R244" s="35"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B245" s="40"/>
-      <c r="C245" s="40" t="str">
+      <c r="B245" s="36"/>
+      <c r="C245" s="36" t="str">
         <f aca="false">IF(D245="","",VLOOKUP(D245,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -13996,8 +13992,8 @@
       <c r="R245" s="35"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B246" s="40"/>
-      <c r="C246" s="40" t="str">
+      <c r="B246" s="36"/>
+      <c r="C246" s="36" t="str">
         <f aca="false">IF(D246="","",VLOOKUP(D246,SKU!$A$1:$C$150,3,0) * 2)</f>
         <v/>
       </c>
@@ -14014,8 +14010,8 @@
       <c r="R246" s="35"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="40"/>
-      <c r="C247" s="40"/>
+      <c r="B247" s="36"/>
+      <c r="C247" s="36"/>
       <c r="F247" s="33" t="str">
         <f aca="true">IF(G247="", IF(K247="","",(INDIRECT("N" &amp; ROW() - 1) - O247)),IF(K247="", "", INDIRECT("N" &amp; ROW() - 1) - O247))</f>
         <v/>
@@ -14029,8 +14025,8 @@
       <c r="R247" s="35"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
+      <c r="B248" s="36"/>
+      <c r="C248" s="36"/>
       <c r="F248" s="33" t="str">
         <f aca="true">IF(G248="", IF(K248="","",(INDIRECT("N" &amp; ROW() - 1) - O248)),IF(K248="", "", INDIRECT("N" &amp; ROW() - 1) - O248))</f>
         <v/>
@@ -14044,8 +14040,8 @@
       <c r="R248" s="35"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B249" s="40"/>
-      <c r="C249" s="40"/>
+      <c r="B249" s="36"/>
+      <c r="C249" s="36"/>
       <c r="F249" s="33" t="str">
         <f aca="true">IF(G249="", IF(K249="","",(INDIRECT("N" &amp; ROW() - 1) - O249)),IF(K249="", "", INDIRECT("N" &amp; ROW() - 1) - O249))</f>
         <v/>
@@ -14059,8 +14055,8 @@
       <c r="R249" s="35"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B250" s="40"/>
-      <c r="C250" s="40"/>
+      <c r="B250" s="36"/>
+      <c r="C250" s="36"/>
       <c r="F250" s="33" t="str">
         <f aca="true">IF(G250="", IF(K250="","",(INDIRECT("N" &amp; ROW() - 1) - O250)),IF(K250="", "", INDIRECT("N" &amp; ROW() - 1) - O250))</f>
         <v/>
@@ -14074,8 +14070,8 @@
       <c r="R250" s="35"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B251" s="40"/>
-      <c r="C251" s="40"/>
+      <c r="B251" s="36"/>
+      <c r="C251" s="36"/>
       <c r="F251" s="33" t="str">
         <f aca="true">IF(G251="", IF(K251="","",(INDIRECT("N" &amp; ROW() - 1) - O251)),IF(K251="", "", INDIRECT("N" &amp; ROW() - 1) - O251))</f>
         <v/>
@@ -14089,8 +14085,8 @@
       <c r="R251" s="35"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B252" s="40"/>
-      <c r="C252" s="40"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="36"/>
       <c r="F252" s="33" t="str">
         <f aca="true">IF(G252="", IF(K252="","",(INDIRECT("N" &amp; ROW() - 1) - O252)),IF(K252="", "", INDIRECT("N" &amp; ROW() - 1) - O252))</f>
         <v/>
@@ -14104,8 +14100,8 @@
       <c r="R252" s="35"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="36"/>
       <c r="F253" s="33" t="str">
         <f aca="true">IF(G253="", IF(K253="","",(INDIRECT("N" &amp; ROW() - 1) - O253)),IF(K253="", "", INDIRECT("N" &amp; ROW() - 1) - O253))</f>
         <v/>
@@ -14119,8 +14115,8 @@
       <c r="R253" s="35"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B254" s="40"/>
-      <c r="C254" s="40"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="36"/>
       <c r="F254" s="33" t="str">
         <f aca="true">IF(G254="", IF(K254="","",(INDIRECT("N" &amp; ROW() - 1) - O254)),IF(K254="", "", INDIRECT("N" &amp; ROW() - 1) - O254))</f>
         <v/>
@@ -14134,8 +14130,8 @@
       <c r="R254" s="35"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B255" s="40"/>
-      <c r="C255" s="40"/>
+      <c r="B255" s="36"/>
+      <c r="C255" s="36"/>
       <c r="F255" s="33" t="str">
         <f aca="true">IF(G255="", IF(K255="","",(INDIRECT("N" &amp; ROW() - 1) - O255)),IF(K255="", "", INDIRECT("N" &amp; ROW() - 1) - O255))</f>
         <v/>
@@ -14149,8 +14145,8 @@
       <c r="R255" s="35"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B256" s="40"/>
-      <c r="C256" s="40"/>
+      <c r="B256" s="36"/>
+      <c r="C256" s="36"/>
       <c r="F256" s="33" t="str">
         <f aca="true">IF(G256="", IF(K256="","",(INDIRECT("N" &amp; ROW() - 1) - O256)),IF(K256="", "", INDIRECT("N" &amp; ROW() - 1) - O256))</f>
         <v/>
@@ -14164,8 +14160,8 @@
       <c r="R256" s="35"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B257" s="40"/>
-      <c r="C257" s="40"/>
+      <c r="B257" s="36"/>
+      <c r="C257" s="36"/>
       <c r="F257" s="33" t="str">
         <f aca="true">IF(G257="", IF(K257="","",(INDIRECT("N" &amp; ROW() - 1) - O257)),IF(K257="", "", INDIRECT("N" &amp; ROW() - 1) - O257))</f>
         <v/>
@@ -14179,8 +14175,8 @@
       <c r="R257" s="35"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
+      <c r="B258" s="36"/>
+      <c r="C258" s="36"/>
       <c r="F258" s="33" t="str">
         <f aca="true">IF(G258="", IF(K258="","",(INDIRECT("N" &amp; ROW() - 1) - O258)),IF(K258="", "", INDIRECT("N" &amp; ROW() - 1) - O258))</f>
         <v/>
@@ -14194,8 +14190,8 @@
       <c r="R258" s="35"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B259" s="40"/>
-      <c r="C259" s="40"/>
+      <c r="B259" s="36"/>
+      <c r="C259" s="36"/>
       <c r="F259" s="33" t="str">
         <f aca="true">IF(G259="", IF(K259="","",(INDIRECT("N" &amp; ROW() - 1) - O259)),IF(K259="", "", INDIRECT("N" &amp; ROW() - 1) - O259))</f>
         <v/>
@@ -14209,8 +14205,8 @@
       <c r="R259" s="35"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B260" s="40"/>
-      <c r="C260" s="40"/>
+      <c r="B260" s="36"/>
+      <c r="C260" s="36"/>
       <c r="F260" s="33" t="str">
         <f aca="true">IF(G260="", IF(K260="","",(INDIRECT("N" &amp; ROW() - 1) - O260)),IF(K260="", "", INDIRECT("N" &amp; ROW() - 1) - O260))</f>
         <v/>
@@ -14224,8 +14220,8 @@
       <c r="R260" s="35"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B261" s="40"/>
-      <c r="C261" s="40"/>
+      <c r="B261" s="36"/>
+      <c r="C261" s="36"/>
       <c r="F261" s="33" t="str">
         <f aca="true">IF(G261="", IF(K261="","",(INDIRECT("N" &amp; ROW() - 1) - O261)),IF(K261="", "", INDIRECT("N" &amp; ROW() - 1) - O261))</f>
         <v/>
@@ -14239,8 +14235,8 @@
       <c r="R261" s="35"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B262" s="40"/>
-      <c r="C262" s="40"/>
+      <c r="B262" s="36"/>
+      <c r="C262" s="36"/>
       <c r="F262" s="33" t="str">
         <f aca="true">IF(G262="", IF(K262="","",(INDIRECT("N" &amp; ROW() - 1) - O262)),IF(K262="", "", INDIRECT("N" &amp; ROW() - 1) - O262))</f>
         <v/>
@@ -14254,8 +14250,8 @@
       <c r="R262" s="35"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B263" s="40"/>
-      <c r="C263" s="40"/>
+      <c r="B263" s="36"/>
+      <c r="C263" s="36"/>
       <c r="F263" s="33" t="str">
         <f aca="true">IF(G263="", IF(K263="","",(INDIRECT("N" &amp; ROW() - 1) - O263)),IF(K263="", "", INDIRECT("N" &amp; ROW() - 1) - O263))</f>
         <v/>
@@ -14269,8 +14265,8 @@
       <c r="R263" s="35"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B264" s="40"/>
-      <c r="C264" s="40"/>
+      <c r="B264" s="36"/>
+      <c r="C264" s="36"/>
       <c r="F264" s="33" t="str">
         <f aca="true">IF(G264="", IF(K264="","",(INDIRECT("N" &amp; ROW() - 1) - O264)),IF(K264="", "", INDIRECT("N" &amp; ROW() - 1) - O264))</f>
         <v/>
@@ -14284,8 +14280,8 @@
       <c r="R264" s="35"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B265" s="40"/>
-      <c r="C265" s="40"/>
+      <c r="B265" s="36"/>
+      <c r="C265" s="36"/>
       <c r="F265" s="33" t="str">
         <f aca="true">IF(G265="", IF(K265="","",(INDIRECT("N" &amp; ROW() - 1) - O265)),IF(K265="", "", INDIRECT("N" &amp; ROW() - 1) - O265))</f>
         <v/>
@@ -14299,8 +14295,8 @@
       <c r="R265" s="35"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B266" s="40"/>
-      <c r="C266" s="40"/>
+      <c r="B266" s="36"/>
+      <c r="C266" s="36"/>
       <c r="H266" s="34" t="str">
         <f aca="true">IF(K266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14309,8 +14305,8 @@
       <c r="J266" s="34"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B267" s="40"/>
-      <c r="C267" s="40"/>
+      <c r="B267" s="36"/>
+      <c r="C267" s="36"/>
       <c r="H267" s="34" t="str">
         <f aca="true">IF(K267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14319,8 +14315,8 @@
       <c r="J267" s="34"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="40"/>
-      <c r="C268" s="40"/>
+      <c r="B268" s="36"/>
+      <c r="C268" s="36"/>
       <c r="H268" s="34" t="str">
         <f aca="true">IF(K268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14329,8 +14325,8 @@
       <c r="J268" s="34"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="40"/>
-      <c r="C269" s="40"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="36"/>
       <c r="H269" s="34" t="str">
         <f aca="true">IF(K269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14339,8 +14335,8 @@
       <c r="J269" s="34"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="36"/>
       <c r="H270" s="34" t="str">
         <f aca="true">IF(K270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14349,8 +14345,8 @@
       <c r="J270" s="34"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B271" s="40"/>
-      <c r="C271" s="40"/>
+      <c r="B271" s="36"/>
+      <c r="C271" s="36"/>
       <c r="H271" s="34" t="str">
         <f aca="true">IF(K271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14359,8 +14355,8 @@
       <c r="J271" s="34"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B272" s="40"/>
-      <c r="C272" s="40"/>
+      <c r="B272" s="36"/>
+      <c r="C272" s="36"/>
       <c r="H272" s="34" t="str">
         <f aca="true">IF(K272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14369,8 +14365,8 @@
       <c r="J272" s="34"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
+      <c r="B273" s="36"/>
+      <c r="C273" s="36"/>
       <c r="H273" s="34" t="str">
         <f aca="true">IF(K273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14379,8 +14375,8 @@
       <c r="J273" s="34"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B274" s="40"/>
-      <c r="C274" s="40"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="36"/>
       <c r="H274" s="34" t="str">
         <f aca="true">IF(K274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14389,8 +14385,8 @@
       <c r="J274" s="34"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B275" s="40"/>
-      <c r="C275" s="40"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
       <c r="H275" s="34" t="str">
         <f aca="true">IF(K275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14399,8 +14395,8 @@
       <c r="J275" s="34"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B276" s="40"/>
-      <c r="C276" s="40"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="36"/>
       <c r="H276" s="34" t="str">
         <f aca="true">IF(K276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14409,8 +14405,8 @@
       <c r="J276" s="34"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B277" s="40"/>
-      <c r="C277" s="40"/>
+      <c r="B277" s="36"/>
+      <c r="C277" s="36"/>
       <c r="H277" s="34" t="str">
         <f aca="true">IF(K277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14419,8 +14415,8 @@
       <c r="J277" s="34"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="40"/>
-      <c r="C278" s="40"/>
+      <c r="B278" s="36"/>
+      <c r="C278" s="36"/>
       <c r="H278" s="34" t="str">
         <f aca="true">IF(K278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14429,8 +14425,8 @@
       <c r="J278" s="34"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B279" s="40"/>
-      <c r="C279" s="40"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="36"/>
       <c r="H279" s="34" t="str">
         <f aca="true">IF(K279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14439,8 +14435,8 @@
       <c r="J279" s="34"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B280" s="40"/>
-      <c r="C280" s="40"/>
+      <c r="B280" s="36"/>
+      <c r="C280" s="36"/>
       <c r="H280" s="34" t="str">
         <f aca="true">IF(K280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14449,8 +14445,8 @@
       <c r="J280" s="34"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B281" s="40"/>
-      <c r="C281" s="40"/>
+      <c r="B281" s="36"/>
+      <c r="C281" s="36"/>
       <c r="H281" s="34" t="str">
         <f aca="true">IF(K281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14459,8 +14455,8 @@
       <c r="J281" s="34"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B282" s="40"/>
-      <c r="C282" s="40"/>
+      <c r="B282" s="36"/>
+      <c r="C282" s="36"/>
       <c r="H282" s="34" t="str">
         <f aca="true">IF(K282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14469,8 +14465,8 @@
       <c r="J282" s="34"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="40"/>
-      <c r="C283" s="40"/>
+      <c r="B283" s="36"/>
+      <c r="C283" s="36"/>
       <c r="H283" s="34" t="str">
         <f aca="true">IF(K283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14479,8 +14475,8 @@
       <c r="J283" s="34"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="40"/>
-      <c r="C284" s="40"/>
+      <c r="B284" s="36"/>
+      <c r="C284" s="36"/>
       <c r="H284" s="34" t="str">
         <f aca="true">IF(K284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14489,8 +14485,8 @@
       <c r="J284" s="34"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
+      <c r="B285" s="36"/>
+      <c r="C285" s="36"/>
       <c r="H285" s="34" t="str">
         <f aca="true">IF(K285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14499,8 +14495,8 @@
       <c r="J285" s="34"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B286" s="40"/>
-      <c r="C286" s="40"/>
+      <c r="B286" s="36"/>
+      <c r="C286" s="36"/>
       <c r="H286" s="34" t="str">
         <f aca="true">IF(K286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14509,8 +14505,8 @@
       <c r="J286" s="34"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B287" s="40"/>
-      <c r="C287" s="40"/>
+      <c r="B287" s="36"/>
+      <c r="C287" s="36"/>
       <c r="H287" s="34" t="str">
         <f aca="true">IF(K287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14519,8 +14515,8 @@
       <c r="J287" s="34"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B288" s="40"/>
-      <c r="C288" s="40"/>
+      <c r="B288" s="36"/>
+      <c r="C288" s="36"/>
       <c r="H288" s="34" t="str">
         <f aca="true">IF(K288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14529,8 +14525,8 @@
       <c r="J288" s="34"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B289" s="40"/>
-      <c r="C289" s="40"/>
+      <c r="B289" s="36"/>
+      <c r="C289" s="36"/>
       <c r="H289" s="34" t="str">
         <f aca="true">IF(K289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14539,8 +14535,8 @@
       <c r="J289" s="34"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B290" s="40"/>
-      <c r="C290" s="40"/>
+      <c r="B290" s="36"/>
+      <c r="C290" s="36"/>
       <c r="H290" s="34" t="str">
         <f aca="true">IF(K290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14549,8 +14545,8 @@
       <c r="J290" s="34"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B291" s="40"/>
-      <c r="C291" s="40"/>
+      <c r="B291" s="36"/>
+      <c r="C291" s="36"/>
       <c r="H291" s="34" t="str">
         <f aca="true">IF(K291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14559,8 +14555,8 @@
       <c r="J291" s="34"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B292" s="40"/>
-      <c r="C292" s="40"/>
+      <c r="B292" s="36"/>
+      <c r="C292" s="36"/>
       <c r="H292" s="34" t="str">
         <f aca="true">IF(K292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14569,8 +14565,8 @@
       <c r="J292" s="34"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B293" s="40"/>
-      <c r="C293" s="40"/>
+      <c r="B293" s="36"/>
+      <c r="C293" s="36"/>
       <c r="H293" s="34" t="str">
         <f aca="true">IF(K293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14579,8 +14575,8 @@
       <c r="J293" s="34"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B294" s="40"/>
-      <c r="C294" s="40"/>
+      <c r="B294" s="36"/>
+      <c r="C294" s="36"/>
       <c r="H294" s="34" t="str">
         <f aca="true">IF(K294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14589,8 +14585,8 @@
       <c r="J294" s="34"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
+      <c r="B295" s="36"/>
+      <c r="C295" s="36"/>
       <c r="H295" s="34" t="str">
         <f aca="true">IF(K295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14599,8 +14595,8 @@
       <c r="J295" s="34"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B296" s="40"/>
-      <c r="C296" s="40"/>
+      <c r="B296" s="36"/>
+      <c r="C296" s="36"/>
       <c r="H296" s="34" t="str">
         <f aca="true">IF(K296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14609,8 +14605,8 @@
       <c r="J296" s="34"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B297" s="40"/>
-      <c r="C297" s="40"/>
+      <c r="B297" s="36"/>
+      <c r="C297" s="36"/>
       <c r="H297" s="34" t="str">
         <f aca="true">IF(K297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14619,8 +14615,8 @@
       <c r="J297" s="34"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B298" s="40"/>
-      <c r="C298" s="40"/>
+      <c r="B298" s="36"/>
+      <c r="C298" s="36"/>
       <c r="H298" s="34" t="str">
         <f aca="true">IF(K298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14629,8 +14625,8 @@
       <c r="J298" s="34"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B299" s="40"/>
-      <c r="C299" s="40"/>
+      <c r="B299" s="36"/>
+      <c r="C299" s="36"/>
       <c r="H299" s="34" t="str">
         <f aca="true">IF(K299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14639,8 +14635,8 @@
       <c r="J299" s="34"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B300" s="40"/>
-      <c r="C300" s="40"/>
+      <c r="B300" s="36"/>
+      <c r="C300" s="36"/>
       <c r="H300" s="34" t="str">
         <f aca="true">IF(K300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14649,8 +14645,8 @@
       <c r="J300" s="34"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B301" s="40"/>
-      <c r="C301" s="40"/>
+      <c r="B301" s="36"/>
+      <c r="C301" s="36"/>
       <c r="H301" s="34" t="str">
         <f aca="true">IF(K301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14659,8 +14655,8 @@
       <c r="J301" s="34"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B302" s="40"/>
-      <c r="C302" s="40"/>
+      <c r="B302" s="36"/>
+      <c r="C302" s="36"/>
       <c r="H302" s="34" t="str">
         <f aca="true">IF(K302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14669,8 +14665,8 @@
       <c r="J302" s="34"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B303" s="40"/>
-      <c r="C303" s="40"/>
+      <c r="B303" s="36"/>
+      <c r="C303" s="36"/>
       <c r="H303" s="34" t="str">
         <f aca="true">IF(K303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14679,8 +14675,8 @@
       <c r="J303" s="34"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="40"/>
-      <c r="C304" s="40"/>
+      <c r="B304" s="36"/>
+      <c r="C304" s="36"/>
       <c r="H304" s="34" t="str">
         <f aca="true">IF(K304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14689,8 +14685,8 @@
       <c r="J304" s="34"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="40"/>
-      <c r="C305" s="40"/>
+      <c r="B305" s="36"/>
+      <c r="C305" s="36"/>
       <c r="H305" s="34" t="str">
         <f aca="true">IF(K305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14699,8 +14695,8 @@
       <c r="J305" s="34"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="40"/>
-      <c r="C306" s="40"/>
+      <c r="B306" s="36"/>
+      <c r="C306" s="36"/>
       <c r="H306" s="34" t="str">
         <f aca="true">IF(K306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14709,8 +14705,8 @@
       <c r="J306" s="34"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B307" s="40"/>
-      <c r="C307" s="40"/>
+      <c r="B307" s="36"/>
+      <c r="C307" s="36"/>
       <c r="H307" s="34" t="str">
         <f aca="true">IF(K307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14719,8 +14715,8 @@
       <c r="J307" s="34"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B308" s="40"/>
-      <c r="C308" s="40"/>
+      <c r="B308" s="36"/>
+      <c r="C308" s="36"/>
       <c r="H308" s="34" t="str">
         <f aca="true">IF(K308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14729,8 +14725,8 @@
       <c r="J308" s="34"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B309" s="40"/>
-      <c r="C309" s="40"/>
+      <c r="B309" s="36"/>
+      <c r="C309" s="36"/>
       <c r="H309" s="34" t="str">
         <f aca="true">IF(K309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14739,8 +14735,8 @@
       <c r="J309" s="34"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B310" s="40"/>
-      <c r="C310" s="40"/>
+      <c r="B310" s="36"/>
+      <c r="C310" s="36"/>
       <c r="H310" s="34" t="str">
         <f aca="true">IF(K310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14749,8 +14745,8 @@
       <c r="J310" s="34"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B311" s="40"/>
-      <c r="C311" s="40"/>
+      <c r="B311" s="36"/>
+      <c r="C311" s="36"/>
       <c r="H311" s="34" t="str">
         <f aca="true">IF(K311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14759,8 +14755,8 @@
       <c r="J311" s="34"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B312" s="40"/>
-      <c r="C312" s="40"/>
+      <c r="B312" s="36"/>
+      <c r="C312" s="36"/>
       <c r="H312" s="34" t="str">
         <f aca="true">IF(K312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14769,8 +14765,8 @@
       <c r="J312" s="34"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B313" s="40"/>
-      <c r="C313" s="40"/>
+      <c r="B313" s="36"/>
+      <c r="C313" s="36"/>
       <c r="H313" s="34" t="str">
         <f aca="true">IF(K313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14779,8 +14775,8 @@
       <c r="J313" s="34"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B314" s="40"/>
-      <c r="C314" s="40"/>
+      <c r="B314" s="36"/>
+      <c r="C314" s="36"/>
       <c r="H314" s="34" t="str">
         <f aca="true">IF(K314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
@@ -14894,16 +14890,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F1048576">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(#ref!="",0, #ref!)  &lt; - 0.05* IF(#ref!="",0,#ref!)</formula>
+      <formula>IF(#REF!="",0, #REF!)  &lt; - 0.05* IF(#REF!="",0,#REF!)</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(#ref!="",0, #ref!)  &gt;= - 0.05* IF(#ref!="",0,#ref!), IF(#ref!="",0, #ref!) &lt; 0)</formula>
+      <formula>AND(IF(#REF!="",0, #REF!)  &gt;= - 0.05* IF(#REF!="",0,#REF!), IF(#REF!="",0, #REF!) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(#ref!="",0, #ref!)  &lt;= 0.05* IF(#ref!="",0,#ref!), IF(#ref!="",0, #ref!) &gt; 0)</formula>
+      <formula>AND(IF(#REF!="",0, #REF!)  &lt;= 0.05* IF(#REF!="",0,#REF!), IF(#REF!="",0, #REF!) &gt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(#ref!="",0,#ref!)  &gt; 0.05* IF(#ref!="",0,#ref!)</formula>
+      <formula>IF(#REF!="",0,#REF!)  &gt; 0.05* IF(#REF!="",0,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B120">
@@ -15066,7 +15062,7 @@
         <v>342</v>
       </c>
       <c r="C2" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15077,7 +15073,7 @@
         <v>342</v>
       </c>
       <c r="C3" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15088,7 +15084,7 @@
         <v>342</v>
       </c>
       <c r="C4" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15099,7 +15095,7 @@
         <v>342</v>
       </c>
       <c r="C5" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15110,7 +15106,7 @@
         <v>342</v>
       </c>
       <c r="C6" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15121,7 +15117,7 @@
         <v>359</v>
       </c>
       <c r="C7" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,7 +15128,7 @@
         <v>384</v>
       </c>
       <c r="C8" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15143,7 +15139,7 @@
         <v>338</v>
       </c>
       <c r="C9" s="38" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15154,7 +15150,7 @@
         <v>338</v>
       </c>
       <c r="C10" s="38" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15165,7 +15161,7 @@
         <v>338</v>
       </c>
       <c r="C11" s="38" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15176,7 +15172,7 @@
         <v>342</v>
       </c>
       <c r="C12" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15187,7 +15183,7 @@
         <v>359</v>
       </c>
       <c r="C13" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15198,7 +15194,7 @@
         <v>342</v>
       </c>
       <c r="C14" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15209,7 +15205,7 @@
         <v>342</v>
       </c>
       <c r="C15" s="38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15220,7 +15216,7 @@
         <v>351</v>
       </c>
       <c r="C16" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15231,7 +15227,7 @@
         <v>351</v>
       </c>
       <c r="C17" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15242,7 +15238,7 @@
         <v>387</v>
       </c>
       <c r="C18" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15253,7 +15249,7 @@
         <v>387</v>
       </c>
       <c r="C19" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15264,7 +15260,7 @@
         <v>390</v>
       </c>
       <c r="C20" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15275,7 +15271,7 @@
         <v>357</v>
       </c>
       <c r="C21" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15286,7 +15282,7 @@
         <v>357</v>
       </c>
       <c r="C22" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15297,7 +15293,7 @@
         <v>357</v>
       </c>
       <c r="C23" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15308,7 +15304,7 @@
         <v>357</v>
       </c>
       <c r="C24" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15319,7 +15315,7 @@
         <v>355</v>
       </c>
       <c r="C25" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15330,7 +15326,7 @@
         <v>355</v>
       </c>
       <c r="C26" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15341,7 +15337,7 @@
         <v>355</v>
       </c>
       <c r="C27" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15352,7 +15348,7 @@
         <v>355</v>
       </c>
       <c r="C28" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15363,7 +15359,7 @@
         <v>359</v>
       </c>
       <c r="C29" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15374,7 +15370,7 @@
         <v>359</v>
       </c>
       <c r="C30" s="38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -15405,53 +15401,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
